--- a/test/files/example-1.xlsx
+++ b/test/files/example-1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
